--- a/biology/Histoire de la zoologie et de la botanique/Edward_Wilber_Berry/Edward_Wilber_Berry.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Edward_Wilber_Berry/Edward_Wilber_Berry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edward Wilber Berry est un paléontologue et un botaniste américain, né le 10 février 1875 à Newark et mort le 20 septembre 1945 à Stonington.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils d’Abijah Conger Berry et d’Anna née Wilber. De 1890 à 1897, il travaille dans une compagnie de production de coton. De 1897 à 1905, il possède et dirige le Passaic Daily News du New Jersey. Il se marie le 12 avril 1898 avec Mary Willard ; deux fils naîtront de cette union, dont le paléontologue Edward Willard Berry (1900-?).
 En 1906, il devient assistant au département de géologie de l’université Johns-Hopkins de Baltimore. En 1908, il est instructeur de paléontologie,  en 1910, professeur associé de paléobotanique, en 1917, professeur, fonction qu’il conserve jusqu’en 1943. Il est doyen de l’université de 1929 à 1942. Il conduit plusieurs expéditions notamment dans les Andes et au Venezuela.
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il est l’auteur de plus de 500 articles en paléontologie mais aussi en géologie et en biologie.
 Il a notamment publié :
